--- a/biology/Histoire de la zoologie et de la botanique/Nicholas_Aylward_Vigors/Nicholas_Aylward_Vigors.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nicholas_Aylward_Vigors/Nicholas_Aylward_Vigors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicholas Aylward Vigors est un zoologiste et un homme politique irlandais, né en 1785 à Old Leighlin dans le comté de Carlow et mort le 26 octobre 1840.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigors fait ses études au Trinity College d’Oxford. Il fait partie de l’armée britannique durant la guerre d’Espagne contre les troupes napoléoniennes de 1809 à 1811. Il retourne ensuite terminer ses études à Oxford et est diplômé en 1817.
 Il est l’un des fondateurs de la Zoological Society of London en 1826 et son premier secrétaire jusqu’en 1833. Il dirige l’édition de son journal de 1827 à 1834.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1810 : An inquiry into the nature and extent of poetic licence. Mackinlay &amp; Bensley, Londres.
 1831-1834 : avec John Gould, A century of birds from the Himalaya Mountains. Londres.
